--- a/Experiment Recordings.xlsx
+++ b/Experiment Recordings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/star/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B955E9BB-6C62-3E44-82C4-2D455B5B4205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C79E3A-601B-6C40-A808-149143A0B9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -853,6 +853,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,15 +869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -895,13 +895,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1192,12 +1192,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15">
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="2:8" ht="16">
       <c r="B2" s="8" t="s">
@@ -1334,17 +1334,17 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="67" t="s">
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
     </row>
     <row r="11" spans="2:8" ht="32">
       <c r="B11" s="76" t="s">
@@ -1475,24 +1475,24 @@
       </c>
     </row>
     <row r="18" spans="2:15" ht="15">
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
-      <c r="G18" s="64" t="s">
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="G18" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="66"/>
-      <c r="L18" s="64" t="s">
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="L18" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="66"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="69"/>
     </row>
     <row r="19" spans="2:15" ht="34">
       <c r="B19" s="48" t="s">
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="16">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="65" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="38">
@@ -1545,7 +1545,7 @@
       <c r="E20" s="53">
         <v>0.1052</v>
       </c>
-      <c r="G20" s="79" t="s">
+      <c r="G20" s="64" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="31">
@@ -1557,7 +1557,7 @@
       <c r="J20" s="58">
         <v>7.1900000000000006E-2</v>
       </c>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="64" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="31">
@@ -1571,7 +1571,7 @@
       </c>
     </row>
     <row r="21" spans="2:15" ht="16">
-      <c r="B21" s="78"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="38">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
       <c r="E21" s="53">
         <v>0.1163</v>
       </c>
-      <c r="G21" s="78"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="37">
         <v>2</v>
       </c>
@@ -1591,7 +1591,7 @@
       <c r="J21" s="58">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="L21" s="78"/>
+      <c r="L21" s="65"/>
       <c r="M21" s="37">
         <v>2</v>
       </c>
@@ -1603,7 +1603,7 @@
       </c>
     </row>
     <row r="22" spans="2:15" ht="16">
-      <c r="B22" s="78"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="38">
         <v>3</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="E22" s="53">
         <v>0.11409999999999999</v>
       </c>
-      <c r="G22" s="78"/>
+      <c r="G22" s="65"/>
       <c r="H22" s="37">
         <v>3</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="J22" s="58">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="L22" s="78"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="37">
         <v>3</v>
       </c>
@@ -1635,7 +1635,7 @@
       </c>
     </row>
     <row r="23" spans="2:15" ht="16">
-      <c r="B23" s="78"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="38">
         <v>4</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="E23" s="53">
         <v>0.1106</v>
       </c>
-      <c r="G23" s="78"/>
+      <c r="G23" s="65"/>
       <c r="H23" s="37">
         <v>4</v>
       </c>
@@ -1655,7 +1655,7 @@
       <c r="J23" s="58">
         <v>8.72E-2</v>
       </c>
-      <c r="L23" s="78"/>
+      <c r="L23" s="65"/>
       <c r="M23" s="37">
         <v>4</v>
       </c>
@@ -1667,7 +1667,7 @@
       </c>
     </row>
     <row r="24" spans="2:15" ht="16">
-      <c r="B24" s="78"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="38">
         <v>5</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="E24" s="53">
         <v>0.10630000000000001</v>
       </c>
-      <c r="G24" s="80"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="37">
         <v>5</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="J24" s="58">
         <v>9.3200000000000005E-2</v>
       </c>
-      <c r="L24" s="80"/>
+      <c r="L24" s="66"/>
       <c r="M24" s="37">
         <v>5</v>
       </c>
@@ -1699,7 +1699,7 @@
       </c>
     </row>
     <row r="25" spans="2:15" ht="16">
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="31">
@@ -1711,7 +1711,7 @@
       <c r="E25" s="56">
         <v>0.124</v>
       </c>
-      <c r="G25" s="79" t="s">
+      <c r="G25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="31">
@@ -1723,7 +1723,7 @@
       <c r="J25" s="61">
         <v>0.10349999999999999</v>
       </c>
-      <c r="L25" s="79" t="s">
+      <c r="L25" s="64" t="s">
         <v>13</v>
       </c>
       <c r="M25" s="31">
@@ -1737,7 +1737,7 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="16">
-      <c r="B26" s="78"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="37">
         <v>2</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="E26" s="53">
         <v>0.1057</v>
       </c>
-      <c r="G26" s="78"/>
+      <c r="G26" s="65"/>
       <c r="H26" s="37">
         <v>2</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="J26" s="58">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="L26" s="78"/>
+      <c r="L26" s="65"/>
       <c r="M26" s="37">
         <v>2</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
     </row>
     <row r="27" spans="2:15" ht="16">
-      <c r="B27" s="78"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="37">
         <v>3</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="E27" s="53">
         <v>0.13389999999999999</v>
       </c>
-      <c r="G27" s="78"/>
+      <c r="G27" s="65"/>
       <c r="H27" s="37">
         <v>3</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="J27" s="58">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="L27" s="78"/>
+      <c r="L27" s="65"/>
       <c r="M27" s="37">
         <v>3</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="28" spans="2:15" ht="16">
-      <c r="B28" s="78"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="37">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
       <c r="E28" s="53">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="G28" s="78"/>
+      <c r="G28" s="65"/>
       <c r="H28" s="37">
         <v>4</v>
       </c>
@@ -1821,7 +1821,7 @@
       <c r="J28" s="58">
         <v>0.1076</v>
       </c>
-      <c r="L28" s="78"/>
+      <c r="L28" s="65"/>
       <c r="M28" s="37">
         <v>4</v>
       </c>
@@ -1833,7 +1833,7 @@
       </c>
     </row>
     <row r="29" spans="2:15" ht="16">
-      <c r="B29" s="80"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="42">
         <v>5</v>
       </c>
@@ -1843,7 +1843,7 @@
       <c r="E29" s="57">
         <v>0.1171</v>
       </c>
-      <c r="G29" s="80"/>
+      <c r="G29" s="66"/>
       <c r="H29" s="42">
         <v>5</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="J29" s="59">
         <v>0.13700000000000001</v>
       </c>
-      <c r="L29" s="80"/>
+      <c r="L29" s="66"/>
       <c r="M29" s="42">
         <v>5</v>
       </c>
@@ -1865,7 +1865,7 @@
       </c>
     </row>
     <row r="30" spans="2:15" ht="16">
-      <c r="B30" s="79" t="s">
+      <c r="B30" s="64" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="31">
@@ -1877,7 +1877,7 @@
       <c r="E30" s="58">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="G30" s="79" t="s">
+      <c r="G30" s="64" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="37">
@@ -1889,7 +1889,7 @@
       <c r="J30" s="62">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="L30" s="64" t="s">
         <v>6</v>
       </c>
       <c r="M30" s="37">
@@ -1903,7 +1903,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" ht="16">
-      <c r="B31" s="78"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="37">
         <v>2</v>
       </c>
@@ -1913,7 +1913,7 @@
       <c r="E31" s="58">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="G31" s="78"/>
+      <c r="G31" s="65"/>
       <c r="H31" s="37">
         <v>2</v>
       </c>
@@ -1923,7 +1923,7 @@
       <c r="J31" s="62">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="L31" s="78"/>
+      <c r="L31" s="65"/>
       <c r="M31" s="37">
         <v>2</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
     </row>
     <row r="32" spans="2:15" ht="16">
-      <c r="B32" s="78"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="37">
         <v>3</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="E32" s="58">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="G32" s="78"/>
+      <c r="G32" s="65"/>
       <c r="H32" s="37">
         <v>3</v>
       </c>
@@ -1955,7 +1955,7 @@
       <c r="J32" s="62">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="L32" s="78"/>
+      <c r="L32" s="65"/>
       <c r="M32" s="37">
         <v>3</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="33" spans="2:15" ht="16">
-      <c r="B33" s="78"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="37">
         <v>4</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="E33" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="G33" s="78"/>
+      <c r="G33" s="65"/>
       <c r="H33" s="37">
         <v>4</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="J33" s="62">
         <v>5.0799999999999998E-2</v>
       </c>
-      <c r="L33" s="78"/>
+      <c r="L33" s="65"/>
       <c r="M33" s="37">
         <v>4</v>
       </c>
@@ -1999,7 +1999,7 @@
       </c>
     </row>
     <row r="34" spans="2:15" ht="16">
-      <c r="B34" s="80"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="42">
         <v>5</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="E34" s="59">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="G34" s="80"/>
+      <c r="G34" s="66"/>
       <c r="H34" s="42">
         <v>5</v>
       </c>
@@ -2019,7 +2019,7 @@
       <c r="J34" s="63">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="L34" s="80"/>
+      <c r="L34" s="66"/>
       <c r="M34" s="42">
         <v>5</v>
       </c>
@@ -2031,18 +2031,18 @@
       </c>
     </row>
     <row r="36" spans="2:15" ht="15">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="G36" s="64" t="s">
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="G36" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="H36" s="65"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="66"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="69"/>
     </row>
     <row r="37" spans="2:15" ht="34">
       <c r="B37" s="48" t="s">
@@ -2071,7 +2071,7 @@
       </c>
     </row>
     <row r="38" spans="2:15" ht="16">
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="64" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="31">
@@ -2083,7 +2083,7 @@
       <c r="E38" s="58">
         <v>0.1452</v>
       </c>
-      <c r="G38" s="79" t="s">
+      <c r="G38" s="64" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="31">
@@ -2097,7 +2097,7 @@
       </c>
     </row>
     <row r="39" spans="2:15" ht="16">
-      <c r="B39" s="78"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="37">
         <v>2</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="E39" s="58">
         <v>0.1429</v>
       </c>
-      <c r="G39" s="78"/>
+      <c r="G39" s="65"/>
       <c r="H39" s="37">
         <v>2</v>
       </c>
@@ -2119,7 +2119,7 @@
       </c>
     </row>
     <row r="40" spans="2:15" ht="16">
-      <c r="B40" s="78"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="37">
         <v>3</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="E40" s="58">
         <v>0.1186</v>
       </c>
-      <c r="G40" s="78"/>
+      <c r="G40" s="65"/>
       <c r="H40" s="37">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
       </c>
     </row>
     <row r="41" spans="2:15" ht="16">
-      <c r="B41" s="78"/>
+      <c r="B41" s="65"/>
       <c r="C41" s="37">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
       <c r="E41" s="58">
         <v>0.13539999999999999</v>
       </c>
-      <c r="G41" s="78"/>
+      <c r="G41" s="65"/>
       <c r="H41" s="37">
         <v>4</v>
       </c>
@@ -2163,7 +2163,7 @@
       </c>
     </row>
     <row r="42" spans="2:15" ht="16">
-      <c r="B42" s="80"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="37">
         <v>5</v>
       </c>
@@ -2173,7 +2173,7 @@
       <c r="E42" s="58">
         <v>0.13819999999999999</v>
       </c>
-      <c r="G42" s="80"/>
+      <c r="G42" s="66"/>
       <c r="H42" s="42">
         <v>5</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
     </row>
     <row r="43" spans="2:15" ht="16">
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="64" t="s">
         <v>13</v>
       </c>
       <c r="C43" s="31">
@@ -2197,7 +2197,7 @@
       <c r="E43" s="61">
         <v>0.10589999999999999</v>
       </c>
-      <c r="G43" s="79" t="s">
+      <c r="G43" s="64" t="s">
         <v>13</v>
       </c>
       <c r="H43" s="31">
@@ -2211,7 +2211,7 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="16">
-      <c r="B44" s="78"/>
+      <c r="B44" s="65"/>
       <c r="C44" s="37">
         <v>2</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="E44" s="58">
         <v>0.1091</v>
       </c>
-      <c r="G44" s="78"/>
+      <c r="G44" s="65"/>
       <c r="H44" s="37">
         <v>2</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="16">
-      <c r="B45" s="78"/>
+      <c r="B45" s="65"/>
       <c r="C45" s="37">
         <v>3</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="E45" s="58">
         <v>8.2500000000000004E-2</v>
       </c>
-      <c r="G45" s="78"/>
+      <c r="G45" s="65"/>
       <c r="H45" s="37">
         <v>3</v>
       </c>
@@ -2255,7 +2255,7 @@
       </c>
     </row>
     <row r="46" spans="2:15" ht="16">
-      <c r="B46" s="78"/>
+      <c r="B46" s="65"/>
       <c r="C46" s="37">
         <v>4</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="E46" s="58">
         <v>0.1124</v>
       </c>
-      <c r="G46" s="78"/>
+      <c r="G46" s="65"/>
       <c r="H46" s="37">
         <v>4</v>
       </c>
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="47" spans="2:15" ht="16">
-      <c r="B47" s="80"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="42">
         <v>5</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="E47" s="59">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="G47" s="80"/>
+      <c r="G47" s="66"/>
       <c r="H47" s="42">
         <v>5</v>
       </c>
@@ -2299,7 +2299,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="16">
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="64" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="37">
@@ -2311,7 +2311,7 @@
       <c r="E48" s="58">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="G48" s="79" t="s">
+      <c r="G48" s="64" t="s">
         <v>6</v>
       </c>
       <c r="H48" s="37">
@@ -2325,7 +2325,7 @@
       </c>
     </row>
     <row r="49" spans="2:10" ht="16">
-      <c r="B49" s="78"/>
+      <c r="B49" s="65"/>
       <c r="C49" s="37">
         <v>2</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="E49" s="58">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="G49" s="78"/>
+      <c r="G49" s="65"/>
       <c r="H49" s="37">
         <v>2</v>
       </c>
@@ -2347,7 +2347,7 @@
       </c>
     </row>
     <row r="50" spans="2:10" ht="16">
-      <c r="B50" s="78"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="37">
         <v>3</v>
       </c>
@@ -2357,7 +2357,7 @@
       <c r="E50" s="58">
         <v>1.29E-2</v>
       </c>
-      <c r="G50" s="78"/>
+      <c r="G50" s="65"/>
       <c r="H50" s="37">
         <v>3</v>
       </c>
@@ -2369,7 +2369,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="16">
-      <c r="B51" s="78"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="37">
         <v>4</v>
       </c>
@@ -2379,7 +2379,7 @@
       <c r="E51" s="58">
         <v>2.2200000000000001E-2</v>
       </c>
-      <c r="G51" s="78"/>
+      <c r="G51" s="65"/>
       <c r="H51" s="37">
         <v>4</v>
       </c>
@@ -2391,7 +2391,7 @@
       </c>
     </row>
     <row r="52" spans="2:10" ht="16">
-      <c r="B52" s="80"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="42">
         <v>5</v>
       </c>
@@ -2401,7 +2401,7 @@
       <c r="E52" s="59">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="G52" s="80"/>
+      <c r="G52" s="66"/>
       <c r="H52" s="42">
         <v>5</v>
       </c>
@@ -2414,15 +2414,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G29"/>
-    <mergeCell ref="G30:G34"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="G43:G47"/>
-    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="G18:J18"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="G36:J36"/>
@@ -2436,11 +2432,15 @@
     <mergeCell ref="L20:L24"/>
     <mergeCell ref="L25:L29"/>
     <mergeCell ref="L30:L34"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G29"/>
+    <mergeCell ref="G30:G34"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="G43:G47"/>
+    <mergeCell ref="G48:G52"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
